--- a/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_1_sites.xlsx
+++ b/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_1_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Guinee Bissau\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628AE01C-9D7C-4C1E-8679-A7847BEE3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E11F0-7B98-462D-9E17-B7D9BFBE7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -255,12 +255,6 @@
     <t>Portuguese</t>
   </si>
   <si>
-    <t>gw_lf_tas1_202310_1_sites</t>
-  </si>
-  <si>
-    <t>(2023 Oct) 1. TAS1 FL - Formulário do site</t>
-  </si>
-  <si>
     <t>Area sanitaria</t>
   </si>
   <si>
@@ -613,6 +607,12 @@
   </si>
   <si>
     <t>select_one eu</t>
+  </si>
+  <si>
+    <t>(Fev 2024) 1. TAS1 FL - Formulário do site</t>
+  </si>
+  <si>
+    <t>gw_lf_tas1_202402_1_sites</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="3" spans="1:13" s="3" customFormat="1">
       <c r="A3" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17"/>
@@ -1329,7 +1329,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="17"/>
@@ -1352,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="17"/>
@@ -1377,7 +1377,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="17"/>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -1683,10 +1683,10 @@
         <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1694,10 +1694,10 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1705,10 +1705,10 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1716,10 +1716,10 @@
         <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1727,10 +1727,10 @@
         <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1738,10 +1738,10 @@
         <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1749,10 +1749,10 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1760,10 +1760,10 @@
         <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1771,10 +1771,10 @@
         <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1793,10 +1793,10 @@
         <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1804,10 +1804,10 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1815,10 +1815,10 @@
         <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1826,10 +1826,10 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1848,10 +1848,10 @@
         <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1859,10 +1859,10 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1870,13 +1870,13 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1884,13 +1884,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1898,13 +1898,13 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1912,13 +1912,13 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1926,13 +1926,13 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1940,13 +1940,13 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1954,13 +1954,13 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1968,13 +1968,13 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1982,13 +1982,13 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1996,13 +1996,13 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2010,13 +2010,13 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2024,13 +2024,13 @@
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2038,13 +2038,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2066,13 +2066,13 @@
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2080,13 +2080,13 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2094,13 +2094,13 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2108,13 +2108,13 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2122,13 +2122,13 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2136,13 +2136,13 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2150,13 +2150,13 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2164,13 +2164,13 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2178,13 +2178,13 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2192,13 +2192,13 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2206,13 +2206,13 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2220,13 +2220,13 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2234,13 +2234,13 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2248,13 +2248,13 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2262,13 +2262,13 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2276,13 +2276,13 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2290,13 +2290,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2304,13 +2304,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2318,13 +2318,13 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2332,13 +2332,13 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2346,13 +2346,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2360,13 +2360,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2374,13 +2374,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2388,13 +2388,13 @@
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2402,13 +2402,13 @@
         <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2416,13 +2416,13 @@
         <v>58</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2430,13 +2430,13 @@
         <v>58</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2444,13 +2444,13 @@
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2458,13 +2458,13 @@
         <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2472,13 +2472,13 @@
         <v>58</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2486,13 +2486,13 @@
         <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2500,13 +2500,13 @@
         <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2514,13 +2514,13 @@
         <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2528,13 +2528,13 @@
         <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2542,13 +2542,13 @@
         <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2556,13 +2556,13 @@
         <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2570,13 +2570,13 @@
         <v>58</v>
       </c>
       <c r="B75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2584,10 +2584,10 @@
         <v>58</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>64</v>
@@ -2598,10 +2598,10 @@
         <v>58</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
         <v>64</v>
@@ -2612,10 +2612,10 @@
         <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" t="s">
         <v>64</v>
@@ -2626,10 +2626,10 @@
         <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" t="s">
         <v>64</v>
@@ -2640,10 +2640,10 @@
         <v>58</v>
       </c>
       <c r="B80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
         <v>64</v>
@@ -2654,10 +2654,10 @@
         <v>58</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
         <v>64</v>
@@ -2668,10 +2668,10 @@
         <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
         <v>64</v>
@@ -2682,10 +2682,10 @@
         <v>58</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
         <v>64</v>
@@ -2696,13 +2696,13 @@
         <v>58</v>
       </c>
       <c r="B84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2710,13 +2710,13 @@
         <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2724,13 +2724,13 @@
         <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2738,13 +2738,13 @@
         <v>58</v>
       </c>
       <c r="B87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C87" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2752,13 +2752,13 @@
         <v>58</v>
       </c>
       <c r="B88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C88" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2766,13 +2766,13 @@
         <v>58</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2780,13 +2780,13 @@
         <v>58</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2794,13 +2794,13 @@
         <v>58</v>
       </c>
       <c r="B91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2808,13 +2808,13 @@
         <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2822,13 +2822,13 @@
         <v>58</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2836,13 +2836,13 @@
         <v>58</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2850,13 +2850,13 @@
         <v>58</v>
       </c>
       <c r="B95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D95" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2864,13 +2864,13 @@
         <v>58</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2878,13 +2878,13 @@
         <v>58</v>
       </c>
       <c r="B97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2892,13 +2892,13 @@
         <v>58</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2906,13 +2906,13 @@
         <v>58</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2920,13 +2920,13 @@
         <v>58</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2934,13 +2934,13 @@
         <v>58</v>
       </c>
       <c r="B101" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2948,13 +2948,13 @@
         <v>58</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2962,10 +2962,10 @@
         <v>58</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D103" t="s">
         <v>63</v>
@@ -2976,10 +2976,10 @@
         <v>58</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D104" t="s">
         <v>63</v>
@@ -2990,10 +2990,10 @@
         <v>58</v>
       </c>
       <c r="B105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D105" t="s">
         <v>63</v>
@@ -3004,10 +3004,10 @@
         <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D106" t="s">
         <v>63</v>
@@ -3018,10 +3018,10 @@
         <v>58</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D107" t="s">
         <v>63</v>
@@ -3032,10 +3032,10 @@
         <v>58</v>
       </c>
       <c r="B108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C108" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
         <v>63</v>
@@ -3046,10 +3046,10 @@
         <v>58</v>
       </c>
       <c r="B109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D109" t="s">
         <v>63</v>
@@ -3060,10 +3060,10 @@
         <v>58</v>
       </c>
       <c r="B110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
         <v>63</v>
@@ -3074,10 +3074,10 @@
         <v>58</v>
       </c>
       <c r="B111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D111" t="s">
         <v>63</v>
@@ -3088,13 +3088,13 @@
         <v>58</v>
       </c>
       <c r="B112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3102,13 +3102,13 @@
         <v>58</v>
       </c>
       <c r="B113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3116,13 +3116,13 @@
         <v>58</v>
       </c>
       <c r="B114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3130,13 +3130,13 @@
         <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C115" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3144,13 +3144,13 @@
         <v>58</v>
       </c>
       <c r="B116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3158,13 +3158,13 @@
         <v>58</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3172,13 +3172,13 @@
         <v>58</v>
       </c>
       <c r="B118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D118" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3186,13 +3186,13 @@
         <v>58</v>
       </c>
       <c r="B119" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3200,13 +3200,13 @@
         <v>58</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3220,7 +3220,7 @@
         <v>101</v>
       </c>
       <c r="E122" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3234,7 +3234,7 @@
         <v>102</v>
       </c>
       <c r="E123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3248,7 +3248,7 @@
         <v>103</v>
       </c>
       <c r="E124" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3262,7 +3262,7 @@
         <v>104</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3276,7 +3276,7 @@
         <v>105</v>
       </c>
       <c r="E126" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3290,7 +3290,7 @@
         <v>106</v>
       </c>
       <c r="E127" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3304,7 +3304,7 @@
         <v>107</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3318,7 +3318,7 @@
         <v>108</v>
       </c>
       <c r="E129" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>109</v>
       </c>
       <c r="E130" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3346,7 +3346,7 @@
         <v>110</v>
       </c>
       <c r="E131" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3360,7 +3360,7 @@
         <v>111</v>
       </c>
       <c r="E132" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3374,7 +3374,7 @@
         <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3388,7 +3388,7 @@
         <v>113</v>
       </c>
       <c r="E134" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3402,7 +3402,7 @@
         <v>114</v>
       </c>
       <c r="E135" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3416,7 +3416,7 @@
         <v>115</v>
       </c>
       <c r="E136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3430,7 +3430,7 @@
         <v>116</v>
       </c>
       <c r="E137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3444,7 +3444,7 @@
         <v>117</v>
       </c>
       <c r="E138" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3458,7 +3458,7 @@
         <v>118</v>
       </c>
       <c r="E139" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3472,7 +3472,7 @@
         <v>119</v>
       </c>
       <c r="E140" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3486,7 +3486,7 @@
         <v>120</v>
       </c>
       <c r="E141" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3500,7 +3500,7 @@
         <v>121</v>
       </c>
       <c r="E142" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3514,7 +3514,7 @@
         <v>122</v>
       </c>
       <c r="E143" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3528,7 +3528,7 @@
         <v>123</v>
       </c>
       <c r="E144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3542,7 +3542,7 @@
         <v>124</v>
       </c>
       <c r="E145" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>125</v>
       </c>
       <c r="E146" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3570,7 +3570,7 @@
         <v>126</v>
       </c>
       <c r="E147" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3584,7 +3584,7 @@
         <v>127</v>
       </c>
       <c r="E148" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3598,7 +3598,7 @@
         <v>128</v>
       </c>
       <c r="E149" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3612,7 +3612,7 @@
         <v>129</v>
       </c>
       <c r="E150" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3626,7 +3626,7 @@
         <v>130</v>
       </c>
       <c r="E151" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3640,7 +3640,7 @@
         <v>131</v>
       </c>
       <c r="E152" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3654,7 +3654,7 @@
         <v>132</v>
       </c>
       <c r="E153" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3668,7 +3668,7 @@
         <v>133</v>
       </c>
       <c r="E154" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3682,7 +3682,7 @@
         <v>134</v>
       </c>
       <c r="E155" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3696,7 +3696,7 @@
         <v>135</v>
       </c>
       <c r="E156" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3710,7 +3710,7 @@
         <v>136</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3724,7 +3724,7 @@
         <v>137</v>
       </c>
       <c r="E158" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3738,7 +3738,7 @@
         <v>138</v>
       </c>
       <c r="E159" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3752,7 +3752,7 @@
         <v>139</v>
       </c>
       <c r="E160" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3766,7 +3766,7 @@
         <v>140</v>
       </c>
       <c r="E161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3780,7 +3780,7 @@
         <v>141</v>
       </c>
       <c r="E162" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3794,7 +3794,7 @@
         <v>142</v>
       </c>
       <c r="E163" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3808,7 +3808,7 @@
         <v>143</v>
       </c>
       <c r="E164" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3822,7 +3822,7 @@
         <v>144</v>
       </c>
       <c r="E165" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3836,7 +3836,7 @@
         <v>145</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3850,7 +3850,7 @@
         <v>146</v>
       </c>
       <c r="E167" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3864,7 +3864,7 @@
         <v>147</v>
       </c>
       <c r="E168" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3878,7 +3878,7 @@
         <v>148</v>
       </c>
       <c r="E169" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3892,7 +3892,7 @@
         <v>149</v>
       </c>
       <c r="E170" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3906,7 +3906,7 @@
         <v>150</v>
       </c>
       <c r="E171" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3920,7 +3920,7 @@
         <v>151</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3934,7 +3934,7 @@
         <v>152</v>
       </c>
       <c r="E173" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3948,7 +3948,7 @@
         <v>153</v>
       </c>
       <c r="E174" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3962,7 +3962,7 @@
         <v>154</v>
       </c>
       <c r="E175" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3976,7 +3976,7 @@
         <v>155</v>
       </c>
       <c r="E176" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3990,7 +3990,7 @@
         <v>156</v>
       </c>
       <c r="E177" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4004,7 +4004,7 @@
         <v>157</v>
       </c>
       <c r="E178" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4018,7 +4018,7 @@
         <v>158</v>
       </c>
       <c r="E179" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4032,7 +4032,7 @@
         <v>159</v>
       </c>
       <c r="E180" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4046,7 +4046,7 @@
         <v>160</v>
       </c>
       <c r="E181" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4060,7 +4060,7 @@
         <v>161</v>
       </c>
       <c r="E182" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4074,7 +4074,7 @@
         <v>162</v>
       </c>
       <c r="E183" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4088,7 +4088,7 @@
         <v>163</v>
       </c>
       <c r="E184" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4102,7 +4102,7 @@
         <v>164</v>
       </c>
       <c r="E185" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4116,7 +4116,7 @@
         <v>165</v>
       </c>
       <c r="E186" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4130,7 +4130,7 @@
         <v>166</v>
       </c>
       <c r="E187" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4144,7 +4144,7 @@
         <v>167</v>
       </c>
       <c r="E188" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4158,7 +4158,7 @@
         <v>168</v>
       </c>
       <c r="E189" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4172,7 +4172,7 @@
         <v>169</v>
       </c>
       <c r="E190" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4186,7 +4186,7 @@
         <v>170</v>
       </c>
       <c r="E191" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4200,7 +4200,7 @@
         <v>171</v>
       </c>
       <c r="E192" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4214,7 +4214,7 @@
         <v>172</v>
       </c>
       <c r="E193" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4228,7 +4228,7 @@
         <v>173</v>
       </c>
       <c r="E194" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4242,7 +4242,7 @@
         <v>174</v>
       </c>
       <c r="E195" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4256,7 +4256,7 @@
         <v>175</v>
       </c>
       <c r="E196" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4270,7 +4270,7 @@
         <v>176</v>
       </c>
       <c r="E197" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4284,7 +4284,7 @@
         <v>177</v>
       </c>
       <c r="E198" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4298,7 +4298,7 @@
         <v>178</v>
       </c>
       <c r="E199" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4312,7 +4312,7 @@
         <v>179</v>
       </c>
       <c r="E200" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4326,7 +4326,7 @@
         <v>180</v>
       </c>
       <c r="E201" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4340,7 +4340,7 @@
         <v>181</v>
       </c>
       <c r="E202" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4354,7 +4354,7 @@
         <v>182</v>
       </c>
       <c r="E203" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4368,7 +4368,7 @@
         <v>183</v>
       </c>
       <c r="E204" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4382,7 +4382,7 @@
         <v>184</v>
       </c>
       <c r="E205" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4396,7 +4396,7 @@
         <v>185</v>
       </c>
       <c r="E206" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4410,7 +4410,7 @@
         <v>186</v>
       </c>
       <c r="E207" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4424,7 +4424,7 @@
         <v>187</v>
       </c>
       <c r="E208" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4438,7 +4438,7 @@
         <v>188</v>
       </c>
       <c r="E209" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4452,7 +4452,7 @@
         <v>189</v>
       </c>
       <c r="E210" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4466,7 +4466,7 @@
         <v>190</v>
       </c>
       <c r="E211" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4480,7 +4480,7 @@
         <v>191</v>
       </c>
       <c r="E212" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4494,7 +4494,7 @@
         <v>192</v>
       </c>
       <c r="E213" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4508,7 +4508,7 @@
         <v>193</v>
       </c>
       <c r="E214" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4522,7 +4522,7 @@
         <v>194</v>
       </c>
       <c r="E215" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4536,7 +4536,7 @@
         <v>195</v>
       </c>
       <c r="E216" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4550,7 +4550,7 @@
         <v>196</v>
       </c>
       <c r="E217" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4565,7 +4565,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="25" t="s">
-        <v>72</v>
+        <v>189</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>71</v>
+        <v>190</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>70</v>
@@ -4630,31 +4630,31 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4662,10 +4662,10 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>101</v>
@@ -4677,13 +4677,13 @@
         <v>64</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4691,10 +4691,10 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
       <c r="D3">
         <v>102</v>
@@ -4703,13 +4703,13 @@
         <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4717,10 +4717,10 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4">
         <v>103</v>
@@ -4729,13 +4729,13 @@
         <v>64</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -4743,10 +4743,10 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5">
         <v>104</v>
@@ -4755,13 +4755,13 @@
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -4769,10 +4769,10 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>105</v>
@@ -4781,13 +4781,13 @@
         <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>75</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -4795,10 +4795,10 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>106</v>
@@ -4807,13 +4807,13 @@
         <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -4821,10 +4821,10 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>81</v>
-      </c>
-      <c r="C8" t="s">
-        <v>83</v>
       </c>
       <c r="D8">
         <v>107</v>
@@ -4833,13 +4833,13 @@
         <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
         <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -4847,10 +4847,10 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D9">
         <v>108</v>
@@ -4859,13 +4859,13 @@
         <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -4873,10 +4873,10 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10">
         <v>109</v>
@@ -4885,13 +4885,13 @@
         <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -4899,10 +4899,10 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>110</v>
@@ -4914,10 +4914,10 @@
         <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -4925,10 +4925,10 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12">
         <v>111</v>
@@ -4937,13 +4937,13 @@
         <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4951,10 +4951,10 @@
         <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13">
         <v>112</v>
@@ -4963,13 +4963,13 @@
         <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -4977,10 +4977,10 @@
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D14">
         <v>113</v>
@@ -4989,13 +4989,13 @@
         <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -5003,10 +5003,10 @@
         <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15">
         <v>114</v>
@@ -5015,13 +5015,13 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -5029,10 +5029,10 @@
         <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>115</v>
@@ -5044,10 +5044,10 @@
         <v>63</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -5055,10 +5055,10 @@
         <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17">
         <v>116</v>
@@ -5067,13 +5067,13 @@
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -5081,10 +5081,10 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D18">
         <v>117</v>
@@ -5093,13 +5093,13 @@
         <v>64</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -5107,19 +5107,19 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>118</v>
       </c>
       <c r="K19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -5127,19 +5127,19 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" t="s">
         <v>87</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
       </c>
       <c r="D20">
         <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -5147,19 +5147,19 @@
         <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>120</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -5167,19 +5167,19 @@
         <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>121</v>
       </c>
       <c r="K22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -5187,19 +5187,19 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>122</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -5207,19 +5207,19 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D24">
         <v>123</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -5227,19 +5227,19 @@
         <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <v>124</v>
       </c>
       <c r="K25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -5247,19 +5247,19 @@
         <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>125</v>
       </c>
       <c r="K26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -5267,19 +5267,19 @@
         <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <v>126</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -5287,19 +5287,19 @@
         <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D28">
         <v>127</v>
       </c>
       <c r="K28" t="s">
+        <v>85</v>
+      </c>
+      <c r="L28" t="s">
         <v>87</v>
-      </c>
-      <c r="L28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -5307,19 +5307,19 @@
         <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D29">
         <v>128</v>
       </c>
       <c r="K29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -5327,19 +5327,19 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D30">
         <v>129</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -5347,19 +5347,19 @@
         <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D31">
         <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -5367,19 +5367,19 @@
         <v>64</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D32">
         <v>131</v>
       </c>
       <c r="K32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -5387,19 +5387,19 @@
         <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>132</v>
       </c>
       <c r="K33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -5407,19 +5407,19 @@
         <v>64</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D34">
         <v>133</v>
       </c>
       <c r="K34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -5427,19 +5427,19 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D35">
         <v>134</v>
       </c>
       <c r="K35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -5447,19 +5447,19 @@
         <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D36">
         <v>135</v>
       </c>
       <c r="K36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -5467,19 +5467,19 @@
         <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>136</v>
       </c>
       <c r="K37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -5487,19 +5487,19 @@
         <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -5507,19 +5507,19 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
       </c>
       <c r="D39">
         <v>138</v>
       </c>
       <c r="K39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -5527,19 +5527,19 @@
         <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D40">
         <v>139</v>
       </c>
       <c r="K40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -5547,19 +5547,19 @@
         <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D41">
         <v>140</v>
       </c>
       <c r="K41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -5567,19 +5567,19 @@
         <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42">
         <v>141</v>
       </c>
       <c r="K42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -5587,19 +5587,19 @@
         <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <v>142</v>
       </c>
       <c r="K43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -5607,19 +5607,19 @@
         <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <v>143</v>
       </c>
       <c r="K44" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" t="s">
         <v>95</v>
-      </c>
-      <c r="L44" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -5627,19 +5627,19 @@
         <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D45">
         <v>144</v>
       </c>
       <c r="K45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -5647,19 +5647,19 @@
         <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D46">
         <v>145</v>
       </c>
       <c r="K46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -5667,19 +5667,19 @@
         <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47">
         <v>146</v>
       </c>
       <c r="K47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -5687,19 +5687,19 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D48">
         <v>147</v>
       </c>
       <c r="K48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -5707,19 +5707,19 @@
         <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49">
         <v>148</v>
       </c>
       <c r="K49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -5730,16 +5730,16 @@
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50">
         <v>149</v>
       </c>
       <c r="K50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -5750,16 +5750,16 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51">
         <v>150</v>
       </c>
       <c r="K51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -5770,16 +5770,16 @@
         <v>64</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52">
         <v>151</v>
       </c>
       <c r="K52" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -5790,7 +5790,7 @@
         <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53">
         <v>152</v>
@@ -5799,7 +5799,7 @@
         <v>64</v>
       </c>
       <c r="L53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -5810,7 +5810,7 @@
         <v>64</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54">
         <v>153</v>
@@ -5819,7 +5819,7 @@
         <v>64</v>
       </c>
       <c r="L54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -5830,7 +5830,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55">
         <v>154</v>
@@ -5839,7 +5839,7 @@
         <v>64</v>
       </c>
       <c r="L55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -5850,7 +5850,7 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56">
         <v>155</v>
@@ -5859,7 +5859,7 @@
         <v>64</v>
       </c>
       <c r="L56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -5867,10 +5867,10 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57">
         <v>156</v>
@@ -5879,7 +5879,7 @@
         <v>64</v>
       </c>
       <c r="L57" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -5887,10 +5887,10 @@
         <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D58">
         <v>157</v>
@@ -5899,7 +5899,7 @@
         <v>64</v>
       </c>
       <c r="L58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -5907,10 +5907,10 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" t="s">
         <v>106</v>
-      </c>
-      <c r="C59" t="s">
-        <v>108</v>
       </c>
       <c r="D59">
         <v>158</v>
@@ -5919,7 +5919,7 @@
         <v>64</v>
       </c>
       <c r="L59" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -5927,10 +5927,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60">
         <v>159</v>
@@ -5939,7 +5939,7 @@
         <v>64</v>
       </c>
       <c r="L60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -5947,19 +5947,19 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D61">
         <v>160</v>
       </c>
       <c r="K61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -5967,19 +5967,19 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62">
         <v>161</v>
       </c>
       <c r="K62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L62" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -5987,19 +5987,19 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D63">
         <v>162</v>
       </c>
       <c r="K63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -6007,19 +6007,19 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D64">
         <v>163</v>
       </c>
       <c r="K64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -6027,19 +6027,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
         <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
       </c>
       <c r="D65">
         <v>164</v>
       </c>
       <c r="K65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -6047,19 +6047,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D66">
         <v>165</v>
       </c>
       <c r="K66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -6067,19 +6067,19 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D67">
         <v>166</v>
       </c>
       <c r="K67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -6087,19 +6087,19 @@
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D68">
         <v>167</v>
       </c>
       <c r="K68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -6107,19 +6107,19 @@
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69">
         <v>168</v>
       </c>
       <c r="K69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -6127,19 +6127,19 @@
         <v>64</v>
       </c>
       <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
         <v>116</v>
-      </c>
-      <c r="C70" t="s">
-        <v>118</v>
       </c>
       <c r="D70">
         <v>169</v>
       </c>
       <c r="K70" t="s">
+        <v>104</v>
+      </c>
+      <c r="L70" t="s">
         <v>106</v>
-      </c>
-      <c r="L70" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -6147,19 +6147,19 @@
         <v>64</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D71">
         <v>170</v>
       </c>
       <c r="K71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -6167,19 +6167,19 @@
         <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D72">
         <v>171</v>
       </c>
       <c r="K72" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -6190,16 +6190,16 @@
         <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D73">
         <v>172</v>
       </c>
       <c r="K73" t="s">
+        <v>109</v>
+      </c>
+      <c r="L73" t="s">
         <v>111</v>
-      </c>
-      <c r="L73" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6210,16 +6210,16 @@
         <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D74">
         <v>173</v>
       </c>
       <c r="K74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -6230,16 +6230,16 @@
         <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75">
         <v>174</v>
       </c>
       <c r="K75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -6250,16 +6250,16 @@
         <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D76">
         <v>175</v>
       </c>
       <c r="K76" t="s">
+        <v>114</v>
+      </c>
+      <c r="L76" t="s">
         <v>116</v>
-      </c>
-      <c r="L76" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -6267,19 +6267,19 @@
         <v>64</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D77">
         <v>176</v>
       </c>
       <c r="K77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -6287,19 +6287,19 @@
         <v>64</v>
       </c>
       <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" t="s">
         <v>122</v>
-      </c>
-      <c r="C78" t="s">
-        <v>124</v>
       </c>
       <c r="D78">
         <v>177</v>
       </c>
       <c r="K78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -6307,19 +6307,19 @@
         <v>64</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D79">
         <v>178</v>
       </c>
       <c r="K79" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -6327,10 +6327,10 @@
         <v>64</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D80">
         <v>179</v>
@@ -6339,7 +6339,7 @@
         <v>63</v>
       </c>
       <c r="L80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -6347,10 +6347,10 @@
         <v>64</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D81">
         <v>180</v>
@@ -6359,7 +6359,7 @@
         <v>63</v>
       </c>
       <c r="L81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -6367,10 +6367,10 @@
         <v>64</v>
       </c>
       <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
         <v>126</v>
-      </c>
-      <c r="C82" t="s">
-        <v>128</v>
       </c>
       <c r="D82">
         <v>181</v>
@@ -6379,7 +6379,7 @@
         <v>63</v>
       </c>
       <c r="L82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -6387,10 +6387,10 @@
         <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83">
         <v>182</v>
@@ -6399,7 +6399,7 @@
         <v>63</v>
       </c>
       <c r="L83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -6407,10 +6407,10 @@
         <v>64</v>
       </c>
       <c r="B84" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D84">
         <v>183</v>
@@ -6419,7 +6419,7 @@
         <v>63</v>
       </c>
       <c r="L84" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -6427,10 +6427,10 @@
         <v>64</v>
       </c>
       <c r="B85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D85">
         <v>184</v>
@@ -6439,7 +6439,7 @@
         <v>63</v>
       </c>
       <c r="L85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -6447,10 +6447,10 @@
         <v>64</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D86">
         <v>185</v>
@@ -6459,7 +6459,7 @@
         <v>63</v>
       </c>
       <c r="L86" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -6467,10 +6467,10 @@
         <v>64</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D87">
         <v>186</v>
@@ -6479,7 +6479,7 @@
         <v>63</v>
       </c>
       <c r="L87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -6490,7 +6490,7 @@
         <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D88">
         <v>187</v>
@@ -6499,7 +6499,7 @@
         <v>63</v>
       </c>
       <c r="L88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -6507,19 +6507,19 @@
         <v>64</v>
       </c>
       <c r="B89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D89">
         <v>188</v>
       </c>
       <c r="K89" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L89" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -6527,19 +6527,19 @@
         <v>64</v>
       </c>
       <c r="B90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C90" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D90">
         <v>189</v>
       </c>
       <c r="K90" t="s">
+        <v>120</v>
+      </c>
+      <c r="L90" t="s">
         <v>122</v>
-      </c>
-      <c r="L90" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -6547,19 +6547,19 @@
         <v>64</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D91">
         <v>190</v>
       </c>
       <c r="K91" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -6570,16 +6570,16 @@
         <v>63</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D92">
         <v>191</v>
       </c>
       <c r="K92" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -6590,16 +6590,16 @@
         <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D93">
         <v>192</v>
       </c>
       <c r="K93" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -6610,16 +6610,16 @@
         <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D94">
         <v>193</v>
       </c>
       <c r="K94" t="s">
+        <v>124</v>
+      </c>
+      <c r="L94" t="s">
         <v>126</v>
-      </c>
-      <c r="L94" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -6630,16 +6630,16 @@
         <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D95">
         <v>194</v>
       </c>
       <c r="K95" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L95" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -6650,16 +6650,16 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D96">
         <v>195</v>
       </c>
       <c r="K96" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -6667,19 +6667,19 @@
         <v>64</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D97">
         <v>196</v>
       </c>
       <c r="K97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_1_sites.xlsx
+++ b/LF/TAS/Guinee Bissau/2023/gw_lf_tas1_202310_1_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Guinee Bissau\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E11F0-7B98-462D-9E17-B7D9BFBE7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C28773-D148-4F55-AC60-097E4F164523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,10 +609,10 @@
     <t>select_one eu</t>
   </si>
   <si>
-    <t>(Fev 2024) 1. TAS1 FL - Formulário do site</t>
-  </si>
-  <si>
-    <t>gw_lf_tas1_202402_1_sites</t>
+    <t>(Fev 2024) 1. TAS1 FL - Formulário do site V2</t>
+  </si>
+  <si>
+    <t>gw_lf_tas1_202402_1_sites_v2</t>
   </si>
 </sst>
 </file>
@@ -4565,7 +4565,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
